--- a/data/chart-1.xlsx
+++ b/data/chart-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt\Documents\GitHub\mrlacey\WinAppLaunchCompare\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD96CD2E-E76A-4815-B377-3C2CB165BEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6159F745-00ED-4498-A050-C582673B9AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43060" yWindow="1910" windowWidth="22940" windowHeight="16600" xr2:uid="{31F220FF-63DA-4825-AB35-B886140C7704}"/>
   </bookViews>
@@ -615,7 +615,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -632,12 +632,96 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="518932272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:tx>
+              <c:rich>
+                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-US"/>
+                    <a:t>Seconds</a:t>
+                  </a:r>
+                </a:p>
+              </c:rich>
+            </c:tx>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2169,7 +2253,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
